--- a/docs/数据字典.xlsx
+++ b/docs/数据字典.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\ytjkb\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\FytSoaCms\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="订单表" sheetId="1" r:id="rId1"/>
+    <sheet name="退款表" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="162">
   <si>
     <t>out_mch_id</t>
   </si>
@@ -396,14 +397,265 @@
   </si>
   <si>
     <t>String(16)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_shop_id</t>
+  </si>
+  <si>
+    <t>云支付分配给门店的 ID。</t>
+  </si>
+  <si>
+    <t>out_refund_no</t>
+  </si>
+  <si>
+    <t>refund_id</t>
+  </si>
+  <si>
+    <t>第三方支付平台的退款单号。</t>
+  </si>
+  <si>
+    <t>refund_fee</t>
+  </si>
+  <si>
+    <t>本次退款总金额。</t>
+  </si>
+  <si>
+    <t>settlement_refund_fee</t>
+  </si>
+  <si>
+    <t>本次退款结算金额。</t>
+  </si>
+  <si>
+    <t>退款单创建时间。</t>
+  </si>
+  <si>
+    <t>退款单最近更新时间。</t>
+  </si>
+  <si>
+    <t>支付成功时间。</t>
+  </si>
+  <si>
+    <t>退款原因。</t>
+  </si>
+  <si>
+    <t>现金退款金额。</t>
+  </si>
+  <si>
+    <t>现金退款货币类型。</t>
+  </si>
+  <si>
+    <t>实际退款的积分数量。</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>out_trade_no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子商户退款单号，云支付系统单</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Set </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>内全局唯一。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund_fee_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次退款总金额货币类型。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>income_fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款发起时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>client_refund_flow_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端退款流水单号。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>支付宝退款状态，见枚举值定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> AlipayRefundOrderState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部授权单号（押金消费退款必填）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_mch_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund_start_processing_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_last_update_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>refund_reason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微信退款状态，见枚举值定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> WxpayRefundOrderState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wxpay_refund_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_refund_fee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alipay_refund_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash_refund_fee_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>记账退款状态，见枚举值定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> RecordRefundOrderState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_refund_state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_freeze_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +676,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -469,7 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1562,4 +1824,559 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="128.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>